--- a/Results_ConservativeComparison/ConservativeComparison_RightTurn.xlsx
+++ b/Results_ConservativeComparison/ConservativeComparison_RightTurn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RE2022\RE2022 Supplementary Materials\Results_ConservativeComparison\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\GitHub\Hierarchical-Safety-Assessment\Results_ConservativeComparison\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,10 +27,7 @@
     <t>Configuration B</t>
   </si>
   <si>
-    <t>Comparison</t>
-  </si>
-  <si>
-    <t>20_100000000_250_20_20_3000</t>
+    <t>Comparison Results</t>
   </si>
   <si>
     <t>0.625_100000000_250_20_20_3000</t>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>20_100000000_250_20_20_24000</t>
+  </si>
+  <si>
+    <t>20_100000000_250_20_20_3000</t>
   </si>
   <si>
     <t>20_100000000_250_20_20_375.0</t>
@@ -216,10 +216,10 @@
     <t>incomparable</t>
   </si>
   <si>
-    <t>A&gt;B</t>
+    <t>A&lt;B</t>
   </si>
   <si>
-    <t>A&lt;B</t>
+    <t>A&gt;B</t>
   </si>
   <si>
     <t>A=B</t>
@@ -606,15 +606,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1831"/>
+  <dimension ref="A1:H1831"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G3"/>
+      <selection activeCell="G1" sqref="G1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,14 +624,14 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>66</v>
-      </c>
       <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -644,14 +644,14 @@
       <c r="D2" t="s">
         <v>64</v>
       </c>
-      <c r="F2" t="s">
-        <v>65</v>
-      </c>
       <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -664,14 +664,14 @@
       <c r="D3" t="s">
         <v>64</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>67</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -682,10 +682,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -699,7 +699,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -710,10 +710,10 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -724,10 +724,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -738,10 +738,10 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -755,7 +755,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -766,10 +766,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -783,7 +783,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -797,7 +797,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -811,7 +811,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -825,7 +825,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -839,7 +839,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -878,7 +878,7 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -1214,7 +1214,7 @@
         <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
@@ -1228,7 +1228,7 @@
         <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
@@ -1270,7 +1270,7 @@
         <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
@@ -1298,7 +1298,7 @@
         <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
@@ -1312,7 +1312,7 @@
         <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
@@ -1354,7 +1354,7 @@
         <v>54</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
@@ -1368,7 +1368,7 @@
         <v>55</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
@@ -1410,7 +1410,7 @@
         <v>58</v>
       </c>
       <c r="D56" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
@@ -1452,7 +1452,7 @@
         <v>61</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
@@ -1494,7 +1494,7 @@
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
@@ -1522,7 +1522,7 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
@@ -2278,7 +2278,7 @@
         <v>61</v>
       </c>
       <c r="D118" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
@@ -2320,7 +2320,7 @@
         <v>6</v>
       </c>
       <c r="D121" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
@@ -2334,7 +2334,7 @@
         <v>7</v>
       </c>
       <c r="D122" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
@@ -2348,7 +2348,7 @@
         <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
@@ -2362,7 +2362,7 @@
         <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
@@ -2390,7 +2390,7 @@
         <v>11</v>
       </c>
       <c r="D126" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
@@ -2502,7 +2502,7 @@
         <v>19</v>
       </c>
       <c r="D134" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
@@ -2600,7 +2600,7 @@
         <v>26</v>
       </c>
       <c r="D141" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
@@ -2852,7 +2852,7 @@
         <v>44</v>
       </c>
       <c r="D159" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
@@ -2866,7 +2866,7 @@
         <v>45</v>
       </c>
       <c r="D160" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
@@ -2908,7 +2908,7 @@
         <v>48</v>
       </c>
       <c r="D163" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
@@ -2936,7 +2936,7 @@
         <v>50</v>
       </c>
       <c r="D165" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
@@ -2950,7 +2950,7 @@
         <v>51</v>
       </c>
       <c r="D166" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
@@ -2992,7 +2992,7 @@
         <v>54</v>
       </c>
       <c r="D169" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
@@ -3006,7 +3006,7 @@
         <v>55</v>
       </c>
       <c r="D170" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
@@ -3048,7 +3048,7 @@
         <v>58</v>
       </c>
       <c r="D173" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
@@ -3090,7 +3090,7 @@
         <v>61</v>
       </c>
       <c r="D176" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
@@ -3146,7 +3146,7 @@
         <v>8</v>
       </c>
       <c r="D180" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
@@ -3160,7 +3160,7 @@
         <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
@@ -3174,7 +3174,7 @@
         <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
@@ -3202,7 +3202,7 @@
         <v>12</v>
       </c>
       <c r="D184" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
@@ -3314,7 +3314,7 @@
         <v>20</v>
       </c>
       <c r="D192" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
@@ -3650,7 +3650,7 @@
         <v>44</v>
       </c>
       <c r="D216" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
@@ -3664,7 +3664,7 @@
         <v>45</v>
       </c>
       <c r="D217" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
@@ -3706,7 +3706,7 @@
         <v>48</v>
       </c>
       <c r="D220" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
@@ -3734,7 +3734,7 @@
         <v>50</v>
       </c>
       <c r="D222" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
@@ -3748,7 +3748,7 @@
         <v>51</v>
       </c>
       <c r="D223" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
@@ -3790,7 +3790,7 @@
         <v>54</v>
       </c>
       <c r="D226" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
@@ -3804,7 +3804,7 @@
         <v>55</v>
       </c>
       <c r="D227" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
@@ -3846,7 +3846,7 @@
         <v>58</v>
       </c>
       <c r="D230" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
@@ -3888,7 +3888,7 @@
         <v>61</v>
       </c>
       <c r="D233" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.15">
@@ -3930,7 +3930,7 @@
         <v>8</v>
       </c>
       <c r="D236" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
@@ -3944,7 +3944,7 @@
         <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
@@ -3972,7 +3972,7 @@
         <v>11</v>
       </c>
       <c r="D239" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.15">
@@ -4084,7 +4084,7 @@
         <v>19</v>
       </c>
       <c r="D247" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
@@ -4182,7 +4182,7 @@
         <v>26</v>
       </c>
       <c r="D254" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
@@ -4434,7 +4434,7 @@
         <v>44</v>
       </c>
       <c r="D272" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.15">
@@ -4448,7 +4448,7 @@
         <v>45</v>
       </c>
       <c r="D273" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.15">
@@ -4490,7 +4490,7 @@
         <v>48</v>
       </c>
       <c r="D276" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.15">
@@ -4518,7 +4518,7 @@
         <v>50</v>
       </c>
       <c r="D278" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.15">
@@ -4532,7 +4532,7 @@
         <v>51</v>
       </c>
       <c r="D279" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.15">
@@ -4574,7 +4574,7 @@
         <v>54</v>
       </c>
       <c r="D282" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.15">
@@ -4588,7 +4588,7 @@
         <v>55</v>
       </c>
       <c r="D283" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.15">
@@ -4630,7 +4630,7 @@
         <v>58</v>
       </c>
       <c r="D286" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.15">
@@ -4672,7 +4672,7 @@
         <v>61</v>
       </c>
       <c r="D289" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.15">
@@ -4714,7 +4714,7 @@
         <v>9</v>
       </c>
       <c r="D292" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.15">
@@ -4728,7 +4728,7 @@
         <v>10</v>
       </c>
       <c r="D293" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.15">
@@ -4742,7 +4742,7 @@
         <v>11</v>
       </c>
       <c r="D294" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.15">
@@ -4756,7 +4756,7 @@
         <v>12</v>
       </c>
       <c r="D295" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.15">
@@ -4854,7 +4854,7 @@
         <v>19</v>
       </c>
       <c r="D302" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.15">
@@ -4868,7 +4868,7 @@
         <v>20</v>
       </c>
       <c r="D303" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.15">
@@ -4952,7 +4952,7 @@
         <v>26</v>
       </c>
       <c r="D309" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.15">
@@ -5204,7 +5204,7 @@
         <v>44</v>
       </c>
       <c r="D327" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.15">
@@ -5260,7 +5260,7 @@
         <v>48</v>
       </c>
       <c r="D331" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.15">
@@ -5288,7 +5288,7 @@
         <v>50</v>
       </c>
       <c r="D333" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.15">
@@ -5302,7 +5302,7 @@
         <v>51</v>
       </c>
       <c r="D334" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.15">
@@ -5344,7 +5344,7 @@
         <v>54</v>
       </c>
       <c r="D337" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.15">
@@ -5358,7 +5358,7 @@
         <v>55</v>
       </c>
       <c r="D338" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.15">
@@ -5400,7 +5400,7 @@
         <v>58</v>
       </c>
       <c r="D341" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.15">
@@ -5442,7 +5442,7 @@
         <v>61</v>
       </c>
       <c r="D344" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.15">
@@ -5484,7 +5484,7 @@
         <v>10</v>
       </c>
       <c r="D347" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.15">
@@ -5498,7 +5498,7 @@
         <v>11</v>
       </c>
       <c r="D348" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.15">
@@ -5512,7 +5512,7 @@
         <v>12</v>
       </c>
       <c r="D349" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.15">
@@ -5610,7 +5610,7 @@
         <v>19</v>
       </c>
       <c r="D356" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.15">
@@ -5624,7 +5624,7 @@
         <v>20</v>
       </c>
       <c r="D357" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.15">
@@ -5708,7 +5708,7 @@
         <v>26</v>
       </c>
       <c r="D363" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.15">
@@ -5960,7 +5960,7 @@
         <v>44</v>
       </c>
       <c r="D381" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.15">
@@ -6016,7 +6016,7 @@
         <v>48</v>
       </c>
       <c r="D385" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.15">
@@ -6044,7 +6044,7 @@
         <v>50</v>
       </c>
       <c r="D387" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.15">
@@ -6058,7 +6058,7 @@
         <v>51</v>
       </c>
       <c r="D388" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.15">
@@ -6100,7 +6100,7 @@
         <v>54</v>
       </c>
       <c r="D391" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.15">
@@ -6114,7 +6114,7 @@
         <v>55</v>
       </c>
       <c r="D392" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.15">
@@ -6156,7 +6156,7 @@
         <v>58</v>
       </c>
       <c r="D395" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.15">
@@ -6254,7 +6254,7 @@
         <v>12</v>
       </c>
       <c r="D402" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.15">
@@ -6366,7 +6366,7 @@
         <v>20</v>
       </c>
       <c r="D410" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.15">
@@ -6702,7 +6702,7 @@
         <v>44</v>
       </c>
       <c r="D434" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.15">
@@ -6716,7 +6716,7 @@
         <v>45</v>
       </c>
       <c r="D435" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.15">
@@ -6744,7 +6744,7 @@
         <v>47</v>
       </c>
       <c r="D437" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.15">
@@ -6758,7 +6758,7 @@
         <v>48</v>
       </c>
       <c r="D438" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.15">
@@ -6786,7 +6786,7 @@
         <v>50</v>
       </c>
       <c r="D440" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.15">
@@ -6800,7 +6800,7 @@
         <v>51</v>
       </c>
       <c r="D441" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.15">
@@ -6842,7 +6842,7 @@
         <v>54</v>
       </c>
       <c r="D444" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.15">
@@ -6856,7 +6856,7 @@
         <v>55</v>
       </c>
       <c r="D445" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.15">
@@ -6898,7 +6898,7 @@
         <v>58</v>
       </c>
       <c r="D448" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.15">
@@ -6940,7 +6940,7 @@
         <v>61</v>
       </c>
       <c r="D451" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.15">
@@ -7080,7 +7080,7 @@
         <v>19</v>
       </c>
       <c r="D461" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.15">
@@ -7178,7 +7178,7 @@
         <v>26</v>
       </c>
       <c r="D468" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.15">
@@ -7430,7 +7430,7 @@
         <v>44</v>
       </c>
       <c r="D486" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.15">
@@ -7444,7 +7444,7 @@
         <v>45</v>
       </c>
       <c r="D487" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.15">
@@ -7472,7 +7472,7 @@
         <v>47</v>
       </c>
       <c r="D489" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.15">
@@ -7486,7 +7486,7 @@
         <v>48</v>
       </c>
       <c r="D490" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.15">
@@ -7514,7 +7514,7 @@
         <v>50</v>
       </c>
       <c r="D492" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.15">
@@ -7528,7 +7528,7 @@
         <v>51</v>
       </c>
       <c r="D493" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.15">
@@ -7570,7 +7570,7 @@
         <v>54</v>
       </c>
       <c r="D496" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.15">
@@ -7584,7 +7584,7 @@
         <v>55</v>
       </c>
       <c r="D497" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.15">
@@ -7626,7 +7626,7 @@
         <v>58</v>
       </c>
       <c r="D500" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.15">
@@ -7668,7 +7668,7 @@
         <v>61</v>
       </c>
       <c r="D503" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.15">
@@ -7710,7 +7710,7 @@
         <v>13</v>
       </c>
       <c r="D506" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.15">
@@ -7808,7 +7808,7 @@
         <v>20</v>
       </c>
       <c r="D513" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.15">
@@ -8144,7 +8144,7 @@
         <v>44</v>
       </c>
       <c r="D537" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.15">
@@ -8158,7 +8158,7 @@
         <v>45</v>
       </c>
       <c r="D538" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.15">
@@ -8200,7 +8200,7 @@
         <v>48</v>
       </c>
       <c r="D541" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.15">
@@ -8228,7 +8228,7 @@
         <v>50</v>
       </c>
       <c r="D543" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.15">
@@ -8242,7 +8242,7 @@
         <v>51</v>
       </c>
       <c r="D544" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.15">
@@ -8284,7 +8284,7 @@
         <v>54</v>
       </c>
       <c r="D547" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.15">
@@ -8298,7 +8298,7 @@
         <v>55</v>
       </c>
       <c r="D548" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.15">
@@ -8340,7 +8340,7 @@
         <v>58</v>
       </c>
       <c r="D551" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.15">
@@ -8382,7 +8382,7 @@
         <v>61</v>
       </c>
       <c r="D554" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.15">
@@ -8424,7 +8424,7 @@
         <v>14</v>
       </c>
       <c r="D557" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.15">
@@ -9474,7 +9474,7 @@
         <v>40</v>
       </c>
       <c r="D632" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.15">
@@ -10146,7 +10146,7 @@
         <v>40</v>
       </c>
       <c r="D680" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.15">
@@ -12498,7 +12498,7 @@
         <v>26</v>
       </c>
       <c r="D848" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.15">
@@ -12750,7 +12750,7 @@
         <v>44</v>
       </c>
       <c r="D866" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.15">
@@ -12764,7 +12764,7 @@
         <v>45</v>
       </c>
       <c r="D867" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.15">
@@ -12806,7 +12806,7 @@
         <v>48</v>
       </c>
       <c r="D870" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.15">
@@ -12834,7 +12834,7 @@
         <v>50</v>
       </c>
       <c r="D872" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.15">
@@ -12848,7 +12848,7 @@
         <v>51</v>
       </c>
       <c r="D873" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.15">
@@ -12890,7 +12890,7 @@
         <v>54</v>
       </c>
       <c r="D876" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.15">
@@ -12904,7 +12904,7 @@
         <v>55</v>
       </c>
       <c r="D877" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.15">
@@ -12946,7 +12946,7 @@
         <v>58</v>
       </c>
       <c r="D880" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="881" spans="1:4" x14ac:dyDescent="0.15">
@@ -12988,7 +12988,7 @@
         <v>61</v>
       </c>
       <c r="D883" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.15">
@@ -13352,7 +13352,7 @@
         <v>44</v>
       </c>
       <c r="D909" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.15">
@@ -13366,7 +13366,7 @@
         <v>45</v>
       </c>
       <c r="D910" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.15">
@@ -13408,7 +13408,7 @@
         <v>48</v>
       </c>
       <c r="D913" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="914" spans="1:4" x14ac:dyDescent="0.15">
@@ -13436,7 +13436,7 @@
         <v>50</v>
       </c>
       <c r="D915" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="916" spans="1:4" x14ac:dyDescent="0.15">
@@ -13450,7 +13450,7 @@
         <v>51</v>
       </c>
       <c r="D916" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="917" spans="1:4" x14ac:dyDescent="0.15">
@@ -13492,7 +13492,7 @@
         <v>54</v>
       </c>
       <c r="D919" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="920" spans="1:4" x14ac:dyDescent="0.15">
@@ -13506,7 +13506,7 @@
         <v>55</v>
       </c>
       <c r="D920" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="921" spans="1:4" x14ac:dyDescent="0.15">
@@ -13548,7 +13548,7 @@
         <v>58</v>
       </c>
       <c r="D923" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.15">
@@ -13590,7 +13590,7 @@
         <v>61</v>
       </c>
       <c r="D926" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="927" spans="1:4" x14ac:dyDescent="0.15">
@@ -16670,7 +16670,7 @@
         <v>44</v>
       </c>
       <c r="D1146" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1147" spans="1:4" x14ac:dyDescent="0.15">
@@ -16684,7 +16684,7 @@
         <v>45</v>
       </c>
       <c r="D1147" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1148" spans="1:4" x14ac:dyDescent="0.15">
@@ -16726,7 +16726,7 @@
         <v>48</v>
       </c>
       <c r="D1150" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1151" spans="1:4" x14ac:dyDescent="0.15">
@@ -16754,7 +16754,7 @@
         <v>50</v>
       </c>
       <c r="D1152" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1153" spans="1:4" x14ac:dyDescent="0.15">
@@ -16768,7 +16768,7 @@
         <v>51</v>
       </c>
       <c r="D1153" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1154" spans="1:4" x14ac:dyDescent="0.15">
@@ -16810,7 +16810,7 @@
         <v>54</v>
       </c>
       <c r="D1156" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1157" spans="1:4" x14ac:dyDescent="0.15">
@@ -16824,7 +16824,7 @@
         <v>55</v>
       </c>
       <c r="D1157" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1158" spans="1:4" x14ac:dyDescent="0.15">
@@ -16866,7 +16866,7 @@
         <v>58</v>
       </c>
       <c r="D1160" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1161" spans="1:4" x14ac:dyDescent="0.15">
@@ -16908,7 +16908,7 @@
         <v>61</v>
       </c>
       <c r="D1163" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1164" spans="1:4" x14ac:dyDescent="0.15">
@@ -19792,7 +19792,7 @@
         <v>36</v>
       </c>
       <c r="D1369" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1370" spans="1:4" x14ac:dyDescent="0.15">
@@ -23656,7 +23656,7 @@
         <v>48</v>
       </c>
       <c r="D1645" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1646" spans="1:4" x14ac:dyDescent="0.15">
@@ -23908,7 +23908,7 @@
         <v>48</v>
       </c>
       <c r="D1663" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1664" spans="1:4" x14ac:dyDescent="0.15">
@@ -25000,7 +25000,7 @@
         <v>51</v>
       </c>
       <c r="D1741" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1742" spans="1:4" x14ac:dyDescent="0.15">
@@ -25042,7 +25042,7 @@
         <v>54</v>
       </c>
       <c r="D1744" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1745" spans="1:4" x14ac:dyDescent="0.15">
@@ -25056,7 +25056,7 @@
         <v>55</v>
       </c>
       <c r="D1745" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1746" spans="1:4" x14ac:dyDescent="0.15">
@@ -25098,7 +25098,7 @@
         <v>58</v>
       </c>
       <c r="D1748" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1749" spans="1:4" x14ac:dyDescent="0.15">
@@ -25210,7 +25210,7 @@
         <v>54</v>
       </c>
       <c r="D1756" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1757" spans="1:4" x14ac:dyDescent="0.15">
@@ -25224,7 +25224,7 @@
         <v>55</v>
       </c>
       <c r="D1757" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1758" spans="1:4" x14ac:dyDescent="0.15">
@@ -25266,7 +25266,7 @@
         <v>58</v>
       </c>
       <c r="D1760" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1761" spans="1:4" x14ac:dyDescent="0.15">
@@ -25644,7 +25644,7 @@
         <v>55</v>
       </c>
       <c r="D1787" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1788" spans="1:4" x14ac:dyDescent="0.15">
@@ -25686,7 +25686,7 @@
         <v>58</v>
       </c>
       <c r="D1790" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1791" spans="1:4" x14ac:dyDescent="0.15">
@@ -25798,7 +25798,7 @@
         <v>58</v>
       </c>
       <c r="D1798" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1799" spans="1:4" x14ac:dyDescent="0.15">
